--- a/output/condition/増崎セリナ_condition.xlsx
+++ b/output/condition/増崎セリナ_condition.xlsx
@@ -1,147 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
-  <si>
-    <t>レポート年</t>
-  </si>
-  <si>
-    <t>レポート月</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>心拍数</t>
-  </si>
-  <si>
-    <t>体温</t>
-  </si>
-  <si>
-    <t>SPO2</t>
-  </si>
-  <si>
-    <t>体調 [疲労感]</t>
-  </si>
-  <si>
-    <t>体調 [倦怠感]</t>
-  </si>
-  <si>
-    <t>体調 [食欲]</t>
-  </si>
-  <si>
-    <t>体調 [今の体調]</t>
-  </si>
-  <si>
-    <t>体調 [意欲]</t>
-  </si>
-  <si>
-    <t>ケガなど [首の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [肩の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [背中の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [腰の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [下腿部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [足部の痛み]</t>
-  </si>
-  <si>
-    <t>ケガなど [その他]</t>
-  </si>
-  <si>
-    <t>上記で「その他」と回答した場合に記載</t>
-  </si>
-  <si>
-    <t>2020年度</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>増崎セリナ</t>
-  </si>
-  <si>
-    <t>手首を痛めた</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,781 +420,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>レポート年</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>レポート月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>心拍数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>体温</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SPO2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [疲労感]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [倦怠感]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [食欲]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [今の体調]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>体調 [意欲]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [首の痛み]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [肩の痛み]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [背中の痛み]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [腰の痛み]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [下腿部の痛み]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [足部の痛み]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ケガなど [その他]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>上記で「その他」と回答した場合に記載</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>130</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>36.40112313986199</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>95.44287171155948</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>5.918354492327616</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>8.390442322332019</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>9.072599905533439</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>4.100925300204513</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>8.629503750863782</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>8.275354363508171</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>4.039969351416001</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>2.756493665332701</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>8.581140532520804</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>7.847812736427217</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>1.949938581548906</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>2.00421620066611</v>
       </c>
-      <c r="S2" t="s">
-        <v>33</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>147</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>37.18833660781036</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>97.74739939454345</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>5.442051208145922</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>4.12275399375625</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>2.372484775139718</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>3.133633356425811</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>8.050700862422069</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>9.72144971665068</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>3.285726834503295</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>9.833764282373998</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>5.762616979427058</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>4.087216973735667</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>2.628744040855096</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>5.939387942738644</v>
       </c>
-      <c r="S3" t="s">
-        <v>33</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>149</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>37.06900909615048</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>97.05877850663006</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>8.744817651839021</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>8.273006329278566</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>4.959510594303183</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>5.479867471322352</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>6.736124978658538</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>6.38719600313758</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>7.218876143224287</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>9.345574926022387</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>4.367520802643807</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>8.725893262765403</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>9.408555741319113</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>8.628404399075954</v>
       </c>
-      <c r="S4" t="s">
-        <v>33</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>150</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>37.23407957313825</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>96.41935222122721</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>6.755949632420611</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>2.063719941629116</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>4.878516551195101</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>3.024171891673133</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>1.634721924319139</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>7.498120937725657</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>5.853418212488581</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>9.110187436992609</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>8.113725140288695</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>7.017993505609937</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>2.698362894467726</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>5.595311744290895</v>
       </c>
-      <c r="S5" t="s">
-        <v>33</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>144</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>36.29797785922094</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>96.53435087613705</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>5.659457329965148</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>2.849052816814479</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>2.054419149087878</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>2.758135887547781</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>7.050719001151341</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>6.239543922492484</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>2.940370978484527</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>4.005679182759064</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>5.113201168706659</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>6.044587574631759</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>6.632294041019991</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>5.389731537556584</v>
       </c>
-      <c r="S6" t="s">
-        <v>33</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>130</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>36.31489916276041</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>97.20147822818149</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>3.839607996171277</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>1.35753053258412</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>4.990970572785927</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>2.696723745808973</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>7.804487028568995</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>7.080478502159231</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>8.588728190168204</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>8.130472253514766</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>7.905727155534803</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>4.259280559524173</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>8.014155620375764</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>5.456867216875274</v>
       </c>
-      <c r="S7" t="s">
-        <v>33</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>144</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>36.50902645092423</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>98.77686311505371</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>3.261580546937743</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>8.204929175139824</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>6.067153926420391</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>6.785043243586143</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>1.990726346441608</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>6.451322992604474</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>1.825706676371309</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>3.424554125526202</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>9.388030766741636</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>2.710499047896732</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>6.53687837546987</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>5.35146451029253</v>
       </c>
-      <c r="S8" t="s">
-        <v>33</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>135</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>37.21581186659501</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>97.73393571040633</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>4.231891388579532</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>9.112371877956139</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>6.000784666928942</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>5.716201685251233</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>9.629681923959557</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>6.300444047075478</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>7.532701771442926</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>4.907202303891845</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>8.351076034206155</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>8.372161676807846</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>3.686877721182586</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>7.468618719609499</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>140</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>36.18300991793194</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>96.18160130835651</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>3.57787074229137</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>9.057707493430009</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>3.036590210092008</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>5.841401769202102</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>6.920286061688261</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>9.152622434293184</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>6.079874907223523</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>3.483543512453621</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>8.010826441226584</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>5.01849682374873</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>1.941529144146326</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>6.442347221176362</v>
       </c>
-      <c r="S10" t="s">
-        <v>33</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>137</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>36.02701181126676</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>96.64954790516151</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>1.19457729411485</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>5.872219278680886</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>6.766033524401648</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>2.593610349859857</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>7.631996069250345</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>4.391675202623881</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>1.654106579997343</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>8.026667088053619</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>5.623622526671033</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>2.669833422909447</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>3.304766942811204</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>9.077631234601458</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>147</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>37.4969057516049</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>96.42636951820953</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>8.33920815938513</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>5.560202409298554</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>8.891051611004455</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>8.007420427424096</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>6.944114757418625</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>3.310384192758829</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>5.027929961729985</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>6.544412846989966</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>1.638890406034559</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>3.857461800148856</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>9.69382298614258</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>5.029150430906896</v>
       </c>
-      <c r="S12" t="s">
-        <v>33</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>増崎セリナ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>139</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>35.9084401364309</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>95.58767109048743</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>3.084166472746293</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>5.348238331592703</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>1.343571707479724</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>7.408534432918668</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>3.351997394064594</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>2.509703356628115</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>7.90292818329851</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>3.877679258315872</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>6.689693754345837</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>7.623465687245638</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>2.014161439139591</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>3.348151598760579</v>
       </c>
-      <c r="S13" t="s">
-        <v>33</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>手首を痛めた</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>